--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-23T05:02:19+00:00</t>
+    <t>2021-12-23T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-23T10:13:00+00:00</t>
+    <t>2021-12-27T04:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T04:10:26+00:00</t>
+    <t>2021-12-27T04:29:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T04:29:25+00:00</t>
+    <t>2021-12-27T04:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T04:37:34+00:00</t>
+    <t>2021-12-27T05:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T05:03:06+00:00</t>
+    <t>2021-12-27T05:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T05:22:14+00:00</t>
+    <t>2021-12-27T15:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T15:54:02+00:00</t>
+    <t>2021-12-27T16:05:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T16:05:13+00:00</t>
+    <t>2022-01-10T14:49:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:49:35+00:00</t>
+    <t>2022-01-10T15:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:05:18+00:00</t>
+    <t>2022-01-24T13:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:54:26+00:00</t>
+    <t>2022-02-03T14:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T14:18:27+00:00</t>
+    <t>2022-02-08T14:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/CodeSystem-at-core-cs-religion.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:05:18+00:00</t>
+    <t>2022-07-20T10:49:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
